--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
@@ -543,7 +543,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H2">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>1.015349201757778</v>
+        <v>0.756009921048889</v>
       </c>
       <c r="R2">
-        <v>9.13814281582</v>
+        <v>6.80408928944</v>
       </c>
       <c r="S2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="T2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H3">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
-        <v>0.8620152654613336</v>
+        <v>0.8620152654613332</v>
       </c>
       <c r="R3">
-        <v>7.758137389152002</v>
+        <v>7.758137389151999</v>
       </c>
       <c r="S3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="T3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H4">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>0.4666829097426667</v>
+        <v>0.5878687174755556</v>
       </c>
       <c r="R4">
-        <v>4.200146187684001</v>
+        <v>5.29081845728</v>
       </c>
       <c r="S4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="T4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H5">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>0.6330365143586667</v>
+        <v>0.650562803242</v>
       </c>
       <c r="R5">
-        <v>3.798219086152001</v>
+        <v>3.903376819452</v>
       </c>
       <c r="S5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="T5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H6">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>0.5268132144573334</v>
+        <v>0.6029405173706666</v>
       </c>
       <c r="R6">
-        <v>4.741318930116001</v>
+        <v>5.426464656335999</v>
       </c>
       <c r="S6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="T6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
     </row>
   </sheetData>
